--- a/example_usage/testdata/testdata.xlsx
+++ b/example_usage/testdata/testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpu\Documents\feature\SprintTMO8\codeless_mastertestdata\example_usage\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C94139\Desktop\myrepos\codeless\example_usage\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB5F19-7C7C-401A-9D05-4DC1D1CF7C2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataSheet" sheetId="10" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Google.googlepage.searchbar</t>
   </si>
@@ -115,12 +116,18 @@
   </si>
   <si>
     <t>https://bw.apix.plab.internal.t-mobile.com:443/service/soap/v2/CustomerManagement/ProvisionService</t>
+  </si>
+  <si>
+    <t>othervar</t>
+  </si>
+  <si>
+    <t>something else</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,20 +450,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -480,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -488,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -496,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -504,7 +511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -520,7 +527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -528,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -536,7 +543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -544,7 +551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -552,7 +559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -560,32 +567,40 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -601,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -609,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -619,7 +634,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example_usage/testdata/testdata.xlsx
+++ b/example_usage/testdata/testdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C94139\Desktop\myrepos\codeless\example_usage\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpu\Documents\feature\SprintTMO12\codeless_selenium_Ide_integration\example_usage\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD04F49-FD1B-4F38-862B-5B72ADDE23C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="dataSheet" sheetId="10" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Google.googlepage.searchbar</t>
   </si>
@@ -122,12 +121,18 @@
   </si>
   <si>
     <t>https://www.imdb.com/title/tt0110357/</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>yyyy-MMM-dd HH:mm:ss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,20 +455,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -479,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -487,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -495,7 +500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -503,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -511,7 +516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -519,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -527,7 +532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -535,7 +540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -543,7 +548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -551,7 +556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -559,7 +564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -567,7 +572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -575,33 +580,41 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{D1510AE5-C5DC-495C-9FB5-F7712EE166ED}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -617,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -625,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -635,7 +648,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
